--- a/homework/Excel1/openxl_addinfo.xlsx
+++ b/homework/Excel1/openxl_addinfo.xlsx
@@ -19,16 +19,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>user</t>
+    <t>user id</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>siravit</t>
-  </si>
-  <si>
-    <t>asdq123</t>
+    <t>Siravit</t>
+  </si>
+  <si>
+    <t>glambo01</t>
   </si>
   <si>
     <t>123456</t>

--- a/homework/Excel1/openxl_addinfo.xlsx
+++ b/homework/Excel1/openxl_addinfo.xlsx
@@ -25,13 +25,13 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Siravit</t>
-  </si>
-  <si>
-    <t>glambo01</t>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>zxc</t>
   </si>
 </sst>
 </file>
